--- a/Answers.xlsx
+++ b/Answers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Practice qns" sheetId="1" r:id="rId1"/>
@@ -854,6 +854,9 @@
     <t>XML data</t>
   </si>
   <si>
+    <t>XML namespace</t>
+  </si>
+  <si>
     <t>XML tag</t>
   </si>
   <si>
@@ -2326,9 +2329,6 @@
   <si>
     <t>Consider the following scenario:
 Rita, executive assistant to CEO wants to book an appointment today, with General Manager of the company. Select the correct SQL query to display current System date and time for her.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B</t>
   </si>
 </sst>
 </file>
@@ -7774,10 +7774,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C16" sqref="C16"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7893,7 +7893,7 @@
         <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>84</v>
@@ -8038,19 +8038,19 @@
         <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I10" s="8"/>
     </row>
@@ -8065,19 +8065,19 @@
         <v>24</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>261</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I11" s="8"/>
     </row>
@@ -8092,7 +8092,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E12" s="7" t="b">
         <v>0</v>
@@ -8115,19 +8115,19 @@
         <v>26</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>309</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I13" s="8"/>
     </row>
@@ -8142,19 +8142,19 @@
         <v>27</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I14" s="8"/>
     </row>
@@ -8169,7 +8169,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E15" s="7" t="b">
         <v>0</v>
@@ -8192,16 +8192,16 @@
         <v>15</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>121</v>
@@ -8219,19 +8219,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -8246,19 +8246,19 @@
         <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I18" s="8"/>
     </row>
@@ -8273,19 +8273,19 @@
         <v>29</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I19" s="8"/>
     </row>
@@ -8300,7 +8300,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E20" s="22" t="b">
         <v>1</v>
@@ -8323,19 +8323,19 @@
         <v>30</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I21" s="8"/>
     </row>
@@ -8350,19 +8350,19 @@
         <v>30</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I22" s="8"/>
     </row>
@@ -8427,7 +8427,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>88</v>
@@ -8581,19 +8581,19 @@
         <v>22</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I31" s="8"/>
     </row>
@@ -8608,19 +8608,19 @@
         <v>24</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="E32" s="22" t="s">
-        <v>264</v>
-      </c>
       <c r="F32" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I32" s="8"/>
     </row>
@@ -8635,19 +8635,19 @@
         <v>25</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F33" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="F33" s="22" t="s">
-        <v>289</v>
-      </c>
       <c r="G33" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I33" s="8"/>
     </row>
@@ -8662,19 +8662,19 @@
         <v>26</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I34" s="8"/>
     </row>
@@ -8689,7 +8689,7 @@
         <v>27</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E35" s="7" t="b">
         <v>0</v>
@@ -8712,19 +8712,19 @@
         <v>28</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="G36" s="22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I36" s="8"/>
     </row>
@@ -8739,19 +8739,19 @@
         <v>15</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I37" s="8"/>
     </row>
@@ -8766,19 +8766,19 @@
         <v>16</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -8793,19 +8793,19 @@
         <v>29</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I39" s="8"/>
     </row>
@@ -8820,19 +8820,19 @@
         <v>29</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I40" s="8"/>
     </row>
@@ -8847,19 +8847,19 @@
         <v>30</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I41" s="13"/>
     </row>
@@ -8874,19 +8874,19 @@
         <v>30</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I42" s="13"/>
     </row>
@@ -8901,16 +8901,16 @@
         <v>30</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>121</v>
@@ -8928,7 +8928,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>57</v>
@@ -9059,7 +9059,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>178</v>
@@ -9140,19 +9140,19 @@
         <v>22</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I52" s="8"/>
     </row>
@@ -9167,19 +9167,19 @@
         <v>24</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I53" s="8"/>
     </row>
@@ -9199,16 +9199,16 @@
 ___________ includes a detailed  plan drawn to transfer all the necessary information from earlier vendor of the customer  including  Documents , lessons learnt , service status etc.,</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I54" s="8"/>
     </row>
@@ -9223,19 +9223,19 @@
         <v>26</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I55" s="8"/>
     </row>
@@ -9250,19 +9250,19 @@
         <v>27</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I56" s="8"/>
     </row>
@@ -9277,19 +9277,19 @@
         <v>28</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I57" s="8"/>
     </row>
@@ -9304,19 +9304,19 @@
         <v>15</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I58" s="8"/>
     </row>
@@ -9331,16 +9331,16 @@
         <v>16</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E59" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="F59" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="F59" s="25" t="s">
-        <v>404</v>
-      </c>
       <c r="G59" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>85</v>
@@ -9358,19 +9358,19 @@
         <v>29</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I60" s="8"/>
     </row>
@@ -9385,19 +9385,19 @@
         <v>29</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F61" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="F61" s="22" t="s">
-        <v>424</v>
-      </c>
       <c r="G61" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I61" s="8"/>
     </row>
@@ -9412,19 +9412,19 @@
         <v>30</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I62" s="13"/>
     </row>
@@ -9439,19 +9439,19 @@
         <v>30</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H63" s="27" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I63" s="13"/>
     </row>
@@ -9466,19 +9466,19 @@
         <v>30</v>
       </c>
       <c r="D64" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="H64" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="I64" s="13"/>
     </row>
@@ -9516,7 +9516,7 @@
         <v>31</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E66" s="28" t="s">
         <v>70</v>
@@ -9525,10 +9525,10 @@
         <v>71</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I66" s="8"/>
     </row>
@@ -9543,7 +9543,7 @@
         <v>14</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E67" s="22" t="s">
         <v>94</v>
@@ -9573,16 +9573,16 @@
         <v>126</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I68" s="8"/>
     </row>
@@ -9609,7 +9609,7 @@
         <v>151</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I69" s="8"/>
     </row>
@@ -9651,7 +9651,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E71" s="22" t="s">
         <v>191</v>
@@ -9687,10 +9687,10 @@
         <v>221</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>633</v>
+        <v>222</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I72" s="8"/>
     </row>
@@ -9705,19 +9705,19 @@
         <v>22</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I73" s="8"/>
     </row>
@@ -9732,16 +9732,16 @@
         <v>24</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E74" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>121</v>
@@ -9759,19 +9759,19 @@
         <v>25</v>
       </c>
       <c r="D75" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H75" s="22" t="s">
         <v>296</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H75" s="22" t="s">
-        <v>295</v>
       </c>
       <c r="I75" s="8"/>
     </row>
@@ -9786,19 +9786,19 @@
         <v>26</v>
       </c>
       <c r="D76" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E76" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="E76" s="23" t="s">
-        <v>317</v>
-      </c>
       <c r="F76" s="21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I76" s="8"/>
     </row>
@@ -9813,19 +9813,19 @@
         <v>27</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E77" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H77" s="22" t="s">
         <v>339</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H77" s="22" t="s">
-        <v>338</v>
       </c>
       <c r="I77" s="8"/>
     </row>
@@ -9840,19 +9840,19 @@
         <v>28</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I78" s="8"/>
     </row>
@@ -9867,19 +9867,19 @@
         <v>15</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I79" s="8"/>
     </row>
@@ -9894,19 +9894,19 @@
         <v>16</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I80" s="2"/>
     </row>
@@ -9921,7 +9921,7 @@
         <v>29</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E81" s="22" t="b">
         <v>1</v>
@@ -9944,16 +9944,16 @@
         <v>29</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>121</v>
@@ -9971,19 +9971,19 @@
         <v>30</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I83" s="10"/>
     </row>
@@ -9998,19 +9998,19 @@
         <v>30</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H84" s="29" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I84" s="10"/>
     </row>
@@ -10025,19 +10025,19 @@
         <v>30</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I85" s="10"/>
     </row>
@@ -10111,7 +10111,7 @@
         <v>99</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>101</v>
@@ -10156,7 +10156,7 @@
         <v>20</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>153</v>
@@ -10183,7 +10183,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E91" s="22" t="b">
         <v>1</v>
@@ -10206,19 +10206,19 @@
         <v>21</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F92" s="33" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G92" s="33" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H92" s="36" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="I92" s="30"/>
     </row>
@@ -10250,7 +10250,7 @@
         <v>22</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E94" s="35"/>
       <c r="F94" s="35"/>
@@ -10269,19 +10269,19 @@
         <v>24</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I95" s="8"/>
     </row>
@@ -10296,19 +10296,19 @@
         <v>25</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I96" s="8"/>
     </row>
@@ -10323,19 +10323,19 @@
         <v>26</v>
       </c>
       <c r="D97" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F97" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="H97" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="F97" s="22" t="s">
-        <v>625</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="I97" s="8"/>
     </row>
@@ -10350,19 +10350,19 @@
         <v>27</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I98" s="8"/>
     </row>
@@ -10377,16 +10377,16 @@
         <v>28</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>25</v>
@@ -10404,19 +10404,19 @@
         <v>29</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E100" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="H100" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="I100" s="8"/>
     </row>
@@ -10431,19 +10431,19 @@
         <v>29</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F101" s="22" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I101" s="8"/>
     </row>
@@ -10458,19 +10458,19 @@
         <v>30</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I102" s="2"/>
     </row>
@@ -10485,19 +10485,19 @@
         <v>30</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G103" s="25" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I103" s="2"/>
     </row>
@@ -10512,19 +10512,19 @@
         <v>30</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I104" s="2"/>
     </row>
@@ -10566,7 +10566,7 @@
         <v>31</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>77</v>
@@ -10593,7 +10593,7 @@
         <v>14</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E107" s="22" t="s">
         <v>102</v>
@@ -10620,16 +10620,16 @@
         <v>19</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>121</v>
@@ -10670,7 +10670,7 @@
         <v>21</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E110" s="22" t="s">
         <v>195</v>
@@ -10697,16 +10697,16 @@
         <v>21</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G111" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>121</v>
@@ -10724,19 +10724,19 @@
         <v>22</v>
       </c>
       <c r="D112" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G112" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="H112" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G112" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="I112" s="8"/>
     </row>
@@ -10751,19 +10751,19 @@
         <v>22</v>
       </c>
       <c r="D113" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F113" s="22" t="s">
         <v>561</v>
       </c>
-      <c r="E113" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="F113" s="22" t="s">
-        <v>560</v>
-      </c>
       <c r="G113" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I113" s="8"/>
     </row>
@@ -10778,19 +10778,19 @@
         <v>24</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I114" s="8"/>
     </row>
@@ -10805,19 +10805,19 @@
         <v>25</v>
       </c>
       <c r="D115" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="E115" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="H115" s="22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I115" s="8"/>
     </row>
@@ -10832,19 +10832,19 @@
         <v>26</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E116" s="39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I116" s="8"/>
     </row>
@@ -10859,16 +10859,16 @@
         <v>27</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E117" s="39" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>121</v>
@@ -10886,19 +10886,19 @@
         <v>28</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F118" s="39" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I118" s="8"/>
     </row>
@@ -10913,19 +10913,19 @@
         <v>29</v>
       </c>
       <c r="D119" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E119" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="F119" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H119" s="39" t="s">
         <v>418</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="H119" s="39" t="s">
-        <v>417</v>
       </c>
       <c r="I119" s="8"/>
     </row>
@@ -10940,7 +10940,7 @@
         <v>29</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E120" s="7" t="b">
         <v>0</v>
@@ -10963,19 +10963,19 @@
         <v>30</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G121" s="39" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I121" s="8"/>
     </row>
@@ -10990,16 +10990,16 @@
         <v>30</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F122" s="39" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G122" s="39" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H122" s="7" t="s">
         <v>12</v>
@@ -11017,19 +11017,19 @@
         <v>30</v>
       </c>
       <c r="D123" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="E123" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="F123" s="39" t="s">
+        <v>494</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="E123" s="39" t="s">
-        <v>492</v>
-      </c>
-      <c r="F123" s="39" t="s">
-        <v>493</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>565</v>
-      </c>
       <c r="H123" s="39" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I123" s="8"/>
     </row>
@@ -11225,7 +11225,7 @@
         <v>22</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E131" s="39" t="b">
         <v>1</v>
@@ -11248,16 +11248,16 @@
         <v>22</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F132" s="39" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>121</v>
@@ -11275,19 +11275,19 @@
         <v>24</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E133" s="39" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I133" s="8"/>
     </row>
@@ -11302,19 +11302,19 @@
         <v>25</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E134" s="39" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I134" s="8"/>
     </row>
@@ -11329,19 +11329,19 @@
         <v>26</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E135" s="39" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I135" s="8"/>
     </row>
@@ -11356,19 +11356,19 @@
         <v>27</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E136" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F136" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="F136" s="39" t="s">
-        <v>352</v>
-      </c>
       <c r="G136" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I136" s="8"/>
     </row>
@@ -11383,19 +11383,19 @@
         <v>28</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E137" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F137" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="F137" s="39" t="s">
-        <v>366</v>
-      </c>
       <c r="G137" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I137" s="8"/>
     </row>
@@ -11410,7 +11410,7 @@
         <v>29</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E138" s="7" t="b">
         <v>0</v>
@@ -11433,19 +11433,19 @@
         <v>29</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E139" s="39" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I139" s="8"/>
     </row>
@@ -11460,19 +11460,19 @@
         <v>30</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F140" s="39" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I140" s="8"/>
     </row>
@@ -11487,19 +11487,19 @@
         <v>30</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F141" s="39" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I141" s="8"/>
     </row>
@@ -11514,19 +11514,19 @@
         <v>30</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F142" s="39" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I142" s="8"/>
     </row>
@@ -11541,7 +11541,7 @@
         <v>13</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E143" s="40" t="s">
         <v>42</v>
@@ -11580,7 +11580,7 @@
         <v>84</v>
       </c>
       <c r="H144" s="39" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I144" s="8"/>
     </row>
@@ -11631,7 +11631,7 @@
         <v>134</v>
       </c>
       <c r="G146" s="39" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>121</v>
@@ -11726,7 +11726,7 @@
         <v>22</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E150" s="7" t="b">
         <v>1</v>
@@ -11749,16 +11749,16 @@
         <v>22</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E151" s="39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>85</v>
@@ -11776,16 +11776,16 @@
         <v>24</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E152" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G152" s="39" t="s">
         <v>285</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G152" s="39" t="s">
-        <v>284</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>121</v>
@@ -11803,19 +11803,19 @@
         <v>26</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E153" s="39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I153" s="8"/>
     </row>
@@ -11830,19 +11830,19 @@
         <v>27</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F154" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G154" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="G154" s="7" t="s">
-        <v>357</v>
-      </c>
       <c r="H154" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I154" s="8"/>
     </row>
@@ -11857,19 +11857,19 @@
         <v>28</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F155" s="39" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I155" s="8"/>
     </row>
@@ -11884,19 +11884,19 @@
         <v>29</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H156" s="39" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I156" s="8"/>
     </row>
@@ -11911,19 +11911,19 @@
         <v>30</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I157" s="8"/>
     </row>
